--- a/excel/finished/焦化/炼焦-6#-7#焦炉关键指标统计.xlsx
+++ b/excel/finished/焦化/炼焦-6#-7#焦炉关键指标统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="6#-7#焦炉关键指标统计" sheetId="1" r:id="rId1"/>
@@ -452,14 +452,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -517,36 +515,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -562,23 +530,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,9 +550,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,10 +597,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,24 +628,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +696,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,49 +756,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,7 +828,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,31 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,67 +870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,6 +1021,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1038,20 +1051,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,17 +1081,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,26 +1112,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,10 +1124,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1136,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1335,25 +1333,16 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1438,7 +1427,17 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -1721,7 +1720,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1764,11 +1763,11 @@
         <v>4</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1806,7 +1805,7 @@
       <c r="K3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="1:12">
       <c r="A4" s="19" t="s">
@@ -1842,7 +1841,7 @@
       <c r="K4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="36"/>
+      <c r="L4" s="33"/>
     </row>
     <row r="5" ht="22" hidden="1" customHeight="1" spans="1:12">
       <c r="A5" s="22"/>
@@ -1874,12 +1873,12 @@
       <c r="K5" s="20">
         <v>3</v>
       </c>
-      <c r="L5" s="37"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" ht="20.15" customHeight="1" spans="1:12">
       <c r="A6" s="23">
         <f ca="1">IF(_metadata!B1="",EOMONTH(NOW(),-1)+1,EOMONTH(_metadata!B1,-1)+1)</f>
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B6" s="24" t="str">
         <f>IF(_peimei_month_day!A3="","",_peimei_month_day!A3)</f>
@@ -1889,285 +1888,285 @@
         <f>IF(_crushing_month_day!A3="","",_crushing_month_day!A3)</f>
         <v/>
       </c>
-      <c r="D6" s="25" t="str">
+      <c r="D6" s="24" t="str">
         <f>IF(_lianjiao_month_day!A3="","",_lianjiao_month_day!A3)</f>
         <v/>
       </c>
-      <c r="E6" s="25" t="str">
+      <c r="E6" s="24" t="str">
         <f>IF(_lianjiao_month_day!B3="","",_lianjiao_month_day!B3)</f>
         <v/>
       </c>
-      <c r="F6" s="25" t="str">
+      <c r="F6" s="24" t="str">
         <f>IF(_lianjiao_month_day!C3="","",_lianjiao_month_day!C3)</f>
         <v/>
       </c>
-      <c r="G6" s="25" t="str">
+      <c r="G6" s="24" t="str">
         <f>IF(_lianjiao_month_day!D3="","",_lianjiao_month_day!D3)</f>
         <v/>
       </c>
-      <c r="H6" s="25" t="str">
+      <c r="H6" s="24" t="str">
         <f>IF(_lianjiao_month_day!E3="","",_lianjiao_month_day!E3)</f>
         <v/>
       </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="24" t="str">
         <f>IF(_lianjiao_month_day!F3="","",_lianjiao_month_day!F3)</f>
         <v/>
       </c>
-      <c r="J6" s="25" t="str">
+      <c r="J6" s="24" t="str">
         <f>IF(_tag_month_day!A3="","",_tag_month_day!A3)</f>
         <v/>
       </c>
-      <c r="K6" s="25" t="str">
+      <c r="K6" s="24" t="str">
         <f>IF(_tag_month_day!B3="","",_tag_month_day!B3)</f>
         <v/>
       </c>
-      <c r="L6" s="38"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" ht="20.15" customHeight="1" spans="1:12">
       <c r="A7" s="23">
         <f ca="1" t="shared" ref="A7:A36" si="0">A6+1</f>
-        <v>43587</v>
-      </c>
-      <c r="B7" s="26" t="str">
+        <v>43618</v>
+      </c>
+      <c r="B7" s="25" t="str">
         <f>IF(_peimei_month_day!A4="","",_peimei_month_day!A4)</f>
         <v/>
       </c>
-      <c r="C7" s="26" t="str">
+      <c r="C7" s="25" t="str">
         <f>IF(_crushing_month_day!A4="","",_crushing_month_day!A4)</f>
         <v/>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="25" t="str">
         <f>IF(_lianjiao_month_day!A4="","",_lianjiao_month_day!A4)</f>
         <v/>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="25" t="str">
         <f>IF(_lianjiao_month_day!B4="","",_lianjiao_month_day!B4)</f>
         <v/>
       </c>
-      <c r="F7" s="27" t="str">
+      <c r="F7" s="25" t="str">
         <f>IF(_lianjiao_month_day!C4="","",_lianjiao_month_day!C4)</f>
         <v/>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="25" t="str">
         <f>IF(_lianjiao_month_day!D4="","",_lianjiao_month_day!D4)</f>
         <v/>
       </c>
-      <c r="H7" s="27" t="str">
+      <c r="H7" s="25" t="str">
         <f>IF(_lianjiao_month_day!E4="","",_lianjiao_month_day!E4)</f>
         <v/>
       </c>
-      <c r="I7" s="27" t="str">
+      <c r="I7" s="25" t="str">
         <f>IF(_lianjiao_month_day!F4="","",_lianjiao_month_day!F4)</f>
         <v/>
       </c>
-      <c r="J7" s="27" t="str">
+      <c r="J7" s="25" t="str">
         <f>IF(_tag_month_day!A4="","",_tag_month_day!A4)</f>
         <v/>
       </c>
-      <c r="K7" s="27" t="str">
+      <c r="K7" s="25" t="str">
         <f>IF(_tag_month_day!B4="","",_tag_month_day!B4)</f>
         <v/>
       </c>
-      <c r="L7" s="38"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" ht="20.15" customHeight="1" spans="1:12">
       <c r="A8" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43588</v>
-      </c>
-      <c r="B8" s="28" t="str">
+        <v>43619</v>
+      </c>
+      <c r="B8" s="26" t="str">
         <f>IF(_peimei_month_day!A5="","",_peimei_month_day!A5)</f>
         <v/>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="26" t="str">
         <f>IF(_crushing_month_day!A5="","",_crushing_month_day!A5)</f>
         <v/>
       </c>
-      <c r="D8" s="28" t="str">
+      <c r="D8" s="26" t="str">
         <f>IF(_lianjiao_month_day!A5="","",_lianjiao_month_day!A5)</f>
         <v/>
       </c>
-      <c r="E8" s="28" t="str">
+      <c r="E8" s="26" t="str">
         <f>IF(_lianjiao_month_day!B5="","",_lianjiao_month_day!B5)</f>
         <v/>
       </c>
-      <c r="F8" s="28" t="str">
+      <c r="F8" s="26" t="str">
         <f>IF(_lianjiao_month_day!C5="","",_lianjiao_month_day!C5)</f>
         <v/>
       </c>
-      <c r="G8" s="28" t="str">
+      <c r="G8" s="26" t="str">
         <f>IF(_lianjiao_month_day!D5="","",_lianjiao_month_day!D5)</f>
         <v/>
       </c>
-      <c r="H8" s="28" t="str">
+      <c r="H8" s="26" t="str">
         <f>IF(_lianjiao_month_day!E5="","",_lianjiao_month_day!E5)</f>
         <v/>
       </c>
-      <c r="I8" s="28" t="str">
+      <c r="I8" s="26" t="str">
         <f>IF(_lianjiao_month_day!F5="","",_lianjiao_month_day!F5)</f>
         <v/>
       </c>
-      <c r="J8" s="28" t="str">
+      <c r="J8" s="26" t="str">
         <f>IF(_tag_month_day!A5="","",_tag_month_day!A5)</f>
         <v/>
       </c>
-      <c r="K8" s="28" t="str">
+      <c r="K8" s="26" t="str">
         <f>IF(_tag_month_day!B5="","",_tag_month_day!B5)</f>
         <v/>
       </c>
-      <c r="L8" s="38"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" ht="20.15" customHeight="1" spans="1:12">
       <c r="A9" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43589</v>
-      </c>
-      <c r="B9" s="28" t="str">
+        <v>43620</v>
+      </c>
+      <c r="B9" s="26" t="str">
         <f>IF(_peimei_month_day!A6="","",_peimei_month_day!A6)</f>
         <v/>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="26" t="str">
         <f>IF(_crushing_month_day!A6="","",_crushing_month_day!A6)</f>
         <v/>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="26" t="str">
         <f>IF(_lianjiao_month_day!A6="","",_lianjiao_month_day!A6)</f>
         <v/>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="26" t="str">
         <f>IF(_lianjiao_month_day!B6="","",_lianjiao_month_day!B6)</f>
         <v/>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="26" t="str">
         <f>IF(_lianjiao_month_day!C6="","",_lianjiao_month_day!C6)</f>
         <v/>
       </c>
-      <c r="G9" s="28" t="str">
+      <c r="G9" s="26" t="str">
         <f>IF(_lianjiao_month_day!D6="","",_lianjiao_month_day!D6)</f>
         <v/>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="26" t="str">
         <f>IF(_lianjiao_month_day!E6="","",_lianjiao_month_day!E6)</f>
         <v/>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="26" t="str">
         <f>IF(_lianjiao_month_day!F6="","",_lianjiao_month_day!F6)</f>
         <v/>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="26" t="str">
         <f>IF(_tag_month_day!A6="","",_tag_month_day!A6)</f>
         <v/>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="26" t="str">
         <f>IF(_tag_month_day!B6="","",_tag_month_day!B6)</f>
         <v/>
       </c>
-      <c r="L9" s="38"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" ht="20.15" customHeight="1" spans="1:12">
       <c r="A10" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43590</v>
-      </c>
-      <c r="B10" s="28" t="str">
+        <v>43621</v>
+      </c>
+      <c r="B10" s="26" t="str">
         <f>IF(_peimei_month_day!A7="","",_peimei_month_day!A7)</f>
         <v/>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="25" t="str">
         <f>IF(_crushing_month_day!A7="","",_crushing_month_day!A7)</f>
         <v/>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="26" t="str">
         <f>IF(_lianjiao_month_day!A7="","",_lianjiao_month_day!A7)</f>
         <v/>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="26" t="str">
         <f>IF(_lianjiao_month_day!B7="","",_lianjiao_month_day!B7)</f>
         <v/>
       </c>
-      <c r="F10" s="27" t="str">
+      <c r="F10" s="26" t="str">
         <f>IF(_lianjiao_month_day!C7="","",_lianjiao_month_day!C7)</f>
         <v/>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="26" t="str">
         <f>IF(_lianjiao_month_day!D7="","",_lianjiao_month_day!D7)</f>
         <v/>
       </c>
-      <c r="H10" s="27" t="str">
+      <c r="H10" s="26" t="str">
         <f>IF(_lianjiao_month_day!E7="","",_lianjiao_month_day!E7)</f>
         <v/>
       </c>
-      <c r="I10" s="27" t="str">
+      <c r="I10" s="26" t="str">
         <f>IF(_lianjiao_month_day!F7="","",_lianjiao_month_day!F7)</f>
         <v/>
       </c>
-      <c r="J10" s="27" t="str">
+      <c r="J10" s="25" t="str">
         <f>IF(_tag_month_day!A7="","",_tag_month_day!A7)</f>
         <v/>
       </c>
-      <c r="K10" s="27" t="str">
+      <c r="K10" s="25" t="str">
         <f>IF(_tag_month_day!B7="","",_tag_month_day!B7)</f>
         <v/>
       </c>
-      <c r="L10" s="38"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" ht="20.15" customHeight="1" spans="1:12">
       <c r="A11" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43591</v>
-      </c>
-      <c r="B11" s="28" t="str">
+        <v>43622</v>
+      </c>
+      <c r="B11" s="26" t="str">
         <f>IF(_peimei_month_day!A8="","",_peimei_month_day!A8)</f>
         <v/>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f>IF(_crushing_month_day!A8="","",_crushing_month_day!A8)</f>
         <v/>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="26" t="str">
         <f>IF(_lianjiao_month_day!A8="","",_lianjiao_month_day!A8)</f>
         <v/>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="26" t="str">
         <f>IF(_lianjiao_month_day!B8="","",_lianjiao_month_day!B8)</f>
         <v/>
       </c>
-      <c r="F11" s="27" t="str">
+      <c r="F11" s="26" t="str">
         <f>IF(_lianjiao_month_day!C8="","",_lianjiao_month_day!C8)</f>
         <v/>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="26" t="str">
         <f>IF(_lianjiao_month_day!D8="","",_lianjiao_month_day!D8)</f>
         <v/>
       </c>
-      <c r="H11" s="27" t="str">
+      <c r="H11" s="26" t="str">
         <f>IF(_lianjiao_month_day!E8="","",_lianjiao_month_day!E8)</f>
         <v/>
       </c>
-      <c r="I11" s="27" t="str">
+      <c r="I11" s="26" t="str">
         <f>IF(_lianjiao_month_day!F8="","",_lianjiao_month_day!F8)</f>
         <v/>
       </c>
-      <c r="J11" s="27" t="str">
+      <c r="J11" s="25" t="str">
         <f>IF(_tag_month_day!A8="","",_tag_month_day!A8)</f>
         <v/>
       </c>
-      <c r="K11" s="27" t="str">
+      <c r="K11" s="25" t="str">
         <f>IF(_tag_month_day!B8="","",_tag_month_day!B8)</f>
         <v/>
       </c>
-      <c r="L11" s="38"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" ht="20.15" customHeight="1" spans="1:12">
       <c r="A12" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43592</v>
-      </c>
-      <c r="B12" s="29" t="str">
+        <v>43623</v>
+      </c>
+      <c r="B12" s="27" t="str">
         <f>IF(_peimei_month_day!A9="","",_peimei_month_day!A9)</f>
         <v/>
       </c>
-      <c r="C12" s="29" t="str">
+      <c r="C12" s="27" t="str">
         <f>IF(_crushing_month_day!A9="","",_crushing_month_day!A9)</f>
         <v/>
       </c>
@@ -2195,26 +2194,26 @@
         <f>IF(_lianjiao_month_day!F9="","",_lianjiao_month_day!F9)</f>
         <v/>
       </c>
-      <c r="J12" s="27" t="str">
+      <c r="J12" s="25" t="str">
         <f>IF(_tag_month_day!A9="","",_tag_month_day!A9)</f>
         <v/>
       </c>
-      <c r="K12" s="27" t="str">
+      <c r="K12" s="25" t="str">
         <f>IF(_tag_month_day!B9="","",_tag_month_day!B9)</f>
         <v/>
       </c>
-      <c r="L12" s="38"/>
+      <c r="L12" s="35"/>
     </row>
     <row r="13" ht="20.15" customHeight="1" spans="1:12">
       <c r="A13" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43593</v>
-      </c>
-      <c r="B13" s="29" t="str">
+        <v>43624</v>
+      </c>
+      <c r="B13" s="27" t="str">
         <f>IF(_peimei_month_day!A10="","",_peimei_month_day!A10)</f>
         <v/>
       </c>
-      <c r="C13" s="29" t="str">
+      <c r="C13" s="27" t="str">
         <f>IF(_crushing_month_day!A10="","",_crushing_month_day!A10)</f>
         <v/>
       </c>
@@ -2242,26 +2241,26 @@
         <f>IF(_lianjiao_month_day!F10="","",_lianjiao_month_day!F10)</f>
         <v/>
       </c>
-      <c r="J13" s="27" t="str">
+      <c r="J13" s="25" t="str">
         <f>IF(_tag_month_day!A10="","",_tag_month_day!A10)</f>
         <v/>
       </c>
-      <c r="K13" s="27" t="str">
+      <c r="K13" s="25" t="str">
         <f>IF(_tag_month_day!B10="","",_tag_month_day!B10)</f>
         <v/>
       </c>
-      <c r="L13" s="38"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" ht="20.15" customHeight="1" spans="1:12">
       <c r="A14" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43594</v>
-      </c>
-      <c r="B14" s="29" t="str">
+        <v>43625</v>
+      </c>
+      <c r="B14" s="27" t="str">
         <f>IF(_peimei_month_day!A11="","",_peimei_month_day!A11)</f>
         <v/>
       </c>
-      <c r="C14" s="29" t="str">
+      <c r="C14" s="27" t="str">
         <f>IF(_crushing_month_day!A11="","",_crushing_month_day!A11)</f>
         <v/>
       </c>
@@ -2289,161 +2288,161 @@
         <f>IF(_lianjiao_month_day!F11="","",_lianjiao_month_day!F11)</f>
         <v/>
       </c>
-      <c r="J14" s="27" t="str">
+      <c r="J14" s="25" t="str">
         <f>IF(_tag_month_day!A11="","",_tag_month_day!A11)</f>
         <v/>
       </c>
-      <c r="K14" s="27" t="str">
+      <c r="K14" s="25" t="str">
         <f>IF(_tag_month_day!B11="","",_tag_month_day!B11)</f>
         <v/>
       </c>
-      <c r="L14" s="38"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" ht="20.15" customHeight="1" spans="1:12">
       <c r="A15" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43595</v>
-      </c>
-      <c r="B15" s="26" t="str">
+        <v>43626</v>
+      </c>
+      <c r="B15" s="25" t="str">
         <f>IF(_peimei_month_day!A12="","",_peimei_month_day!A12)</f>
         <v/>
       </c>
-      <c r="C15" s="26" t="str">
+      <c r="C15" s="25" t="str">
         <f>IF(_crushing_month_day!A12="","",_crushing_month_day!A12)</f>
         <v/>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="25" t="str">
         <f>IF(_lianjiao_month_day!A12="","",_lianjiao_month_day!A12)</f>
         <v/>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="25" t="str">
         <f>IF(_lianjiao_month_day!B12="","",_lianjiao_month_day!B12)</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="25" t="str">
         <f>IF(_lianjiao_month_day!C12="","",_lianjiao_month_day!C12)</f>
         <v/>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="25" t="str">
         <f>IF(_lianjiao_month_day!D12="","",_lianjiao_month_day!D12)</f>
         <v/>
       </c>
-      <c r="H15" s="27" t="str">
+      <c r="H15" s="25" t="str">
         <f>IF(_lianjiao_month_day!E12="","",_lianjiao_month_day!E12)</f>
         <v/>
       </c>
-      <c r="I15" s="27" t="str">
+      <c r="I15" s="25" t="str">
         <f>IF(_lianjiao_month_day!F12="","",_lianjiao_month_day!F12)</f>
         <v/>
       </c>
-      <c r="J15" s="27" t="str">
+      <c r="J15" s="25" t="str">
         <f>IF(_tag_month_day!A12="","",_tag_month_day!A12)</f>
         <v/>
       </c>
-      <c r="K15" s="27" t="str">
+      <c r="K15" s="25" t="str">
         <f>IF(_tag_month_day!B12="","",_tag_month_day!B12)</f>
         <v/>
       </c>
-      <c r="L15" s="38"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" ht="20.15" customHeight="1" spans="1:12">
       <c r="A16" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43596</v>
-      </c>
-      <c r="B16" s="28" t="str">
+        <v>43627</v>
+      </c>
+      <c r="B16" s="26" t="str">
         <f>IF(_peimei_month_day!A13="","",_peimei_month_day!A13)</f>
         <v/>
       </c>
-      <c r="C16" s="28" t="str">
+      <c r="C16" s="26" t="str">
         <f>IF(_crushing_month_day!A13="","",_crushing_month_day!A13)</f>
         <v/>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="26" t="str">
         <f>IF(_lianjiao_month_day!A13="","",_lianjiao_month_day!A13)</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="26" t="str">
         <f>IF(_lianjiao_month_day!B13="","",_lianjiao_month_day!B13)</f>
         <v/>
       </c>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="26" t="str">
         <f>IF(_lianjiao_month_day!C13="","",_lianjiao_month_day!C13)</f>
         <v/>
       </c>
-      <c r="G16" s="28" t="str">
+      <c r="G16" s="26" t="str">
         <f>IF(_lianjiao_month_day!D13="","",_lianjiao_month_day!D13)</f>
         <v/>
       </c>
-      <c r="H16" s="28" t="str">
+      <c r="H16" s="26" t="str">
         <f>IF(_lianjiao_month_day!E13="","",_lianjiao_month_day!E13)</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="26" t="str">
         <f>IF(_lianjiao_month_day!F13="","",_lianjiao_month_day!F13)</f>
         <v/>
       </c>
-      <c r="J16" s="28" t="str">
+      <c r="J16" s="26" t="str">
         <f>IF(_tag_month_day!A13="","",_tag_month_day!A13)</f>
         <v/>
       </c>
-      <c r="K16" s="28" t="str">
+      <c r="K16" s="26" t="str">
         <f>IF(_tag_month_day!B13="","",_tag_month_day!B13)</f>
         <v/>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="36"/>
     </row>
     <row r="17" ht="20.15" customHeight="1" spans="1:12">
       <c r="A17" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43597</v>
-      </c>
-      <c r="B17" s="28" t="str">
+        <v>43628</v>
+      </c>
+      <c r="B17" s="26" t="str">
         <f>IF(_peimei_month_day!A14="","",_peimei_month_day!A14)</f>
         <v/>
       </c>
-      <c r="C17" s="28" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(_crushing_month_day!A14="","",_crushing_month_day!A14)</f>
         <v/>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(_lianjiao_month_day!A14="","",_lianjiao_month_day!A14)</f>
         <v/>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="26" t="str">
         <f>IF(_lianjiao_month_day!B14="","",_lianjiao_month_day!B14)</f>
         <v/>
       </c>
-      <c r="F17" s="28" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(_lianjiao_month_day!C14="","",_lianjiao_month_day!C14)</f>
         <v/>
       </c>
-      <c r="G17" s="28" t="str">
+      <c r="G17" s="26" t="str">
         <f>IF(_lianjiao_month_day!D14="","",_lianjiao_month_day!D14)</f>
         <v/>
       </c>
-      <c r="H17" s="28" t="str">
+      <c r="H17" s="26" t="str">
         <f>IF(_lianjiao_month_day!E14="","",_lianjiao_month_day!E14)</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="26" t="str">
         <f>IF(_lianjiao_month_day!F14="","",_lianjiao_month_day!F14)</f>
         <v/>
       </c>
-      <c r="J17" s="28" t="str">
+      <c r="J17" s="26" t="str">
         <f>IF(_tag_month_day!A14="","",_tag_month_day!A14)</f>
         <v/>
       </c>
-      <c r="K17" s="28" t="str">
+      <c r="K17" s="26" t="str">
         <f>IF(_tag_month_day!B14="","",_tag_month_day!B14)</f>
         <v/>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="36"/>
     </row>
     <row r="18" ht="20.15" customHeight="1" spans="1:12">
       <c r="A18" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43598</v>
+        <v>43629</v>
       </c>
       <c r="B18" s="24" t="str">
         <f>IF(_peimei_month_day!A15="","",_peimei_month_day!A15)</f>
@@ -2453,44 +2452,44 @@
         <f>IF(_crushing_month_day!A15="","",_crushing_month_day!A15)</f>
         <v/>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="24" t="str">
         <f>IF(_lianjiao_month_day!A15="","",_lianjiao_month_day!A15)</f>
         <v/>
       </c>
-      <c r="E18" s="25" t="str">
+      <c r="E18" s="24" t="str">
         <f>IF(_lianjiao_month_day!B15="","",_lianjiao_month_day!B15)</f>
         <v/>
       </c>
-      <c r="F18" s="25" t="str">
+      <c r="F18" s="24" t="str">
         <f>IF(_lianjiao_month_day!C15="","",_lianjiao_month_day!C15)</f>
         <v/>
       </c>
-      <c r="G18" s="25" t="str">
+      <c r="G18" s="24" t="str">
         <f>IF(_lianjiao_month_day!D15="","",_lianjiao_month_day!D15)</f>
         <v/>
       </c>
-      <c r="H18" s="25" t="str">
+      <c r="H18" s="24" t="str">
         <f>IF(_lianjiao_month_day!E15="","",_lianjiao_month_day!E15)</f>
         <v/>
       </c>
-      <c r="I18" s="25" t="str">
+      <c r="I18" s="24" t="str">
         <f>IF(_lianjiao_month_day!F15="","",_lianjiao_month_day!F15)</f>
         <v/>
       </c>
-      <c r="J18" s="25" t="str">
+      <c r="J18" s="24" t="str">
         <f>IF(_tag_month_day!A15="","",_tag_month_day!A15)</f>
         <v/>
       </c>
-      <c r="K18" s="25" t="str">
+      <c r="K18" s="24" t="str">
         <f>IF(_tag_month_day!B15="","",_tag_month_day!B15)</f>
         <v/>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="36"/>
     </row>
     <row r="19" ht="20.15" customHeight="1" spans="1:12">
       <c r="A19" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43599</v>
+        <v>43630</v>
       </c>
       <c r="B19" s="24" t="str">
         <f>IF(_peimei_month_day!A16="","",_peimei_month_day!A16)</f>
@@ -2500,44 +2499,44 @@
         <f>IF(_crushing_month_day!A16="","",_crushing_month_day!A16)</f>
         <v/>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="24" t="str">
         <f>IF(_lianjiao_month_day!A16="","",_lianjiao_month_day!A16)</f>
         <v/>
       </c>
-      <c r="E19" s="25" t="str">
+      <c r="E19" s="24" t="str">
         <f>IF(_lianjiao_month_day!B16="","",_lianjiao_month_day!B16)</f>
         <v/>
       </c>
-      <c r="F19" s="25" t="str">
+      <c r="F19" s="24" t="str">
         <f>IF(_lianjiao_month_day!C16="","",_lianjiao_month_day!C16)</f>
         <v/>
       </c>
-      <c r="G19" s="25" t="str">
+      <c r="G19" s="24" t="str">
         <f>IF(_lianjiao_month_day!D16="","",_lianjiao_month_day!D16)</f>
         <v/>
       </c>
-      <c r="H19" s="25" t="str">
+      <c r="H19" s="24" t="str">
         <f>IF(_lianjiao_month_day!E16="","",_lianjiao_month_day!E16)</f>
         <v/>
       </c>
-      <c r="I19" s="25" t="str">
+      <c r="I19" s="24" t="str">
         <f>IF(_lianjiao_month_day!F16="","",_lianjiao_month_day!F16)</f>
         <v/>
       </c>
-      <c r="J19" s="25" t="str">
+      <c r="J19" s="24" t="str">
         <f>IF(_tag_month_day!A16="","",_tag_month_day!A16)</f>
         <v/>
       </c>
-      <c r="K19" s="25" t="str">
+      <c r="K19" s="24" t="str">
         <f>IF(_tag_month_day!B16="","",_tag_month_day!B16)</f>
         <v/>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="36"/>
     </row>
     <row r="20" ht="20.15" customHeight="1" spans="1:12">
       <c r="A20" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43600</v>
+        <v>43631</v>
       </c>
       <c r="B20" s="24" t="str">
         <f>IF(_peimei_month_day!A17="","",_peimei_month_day!A17)</f>
@@ -2547,807 +2546,807 @@
         <f>IF(_crushing_month_day!A17="","",_crushing_month_day!A17)</f>
         <v/>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="24" t="str">
         <f>IF(_lianjiao_month_day!A17="","",_lianjiao_month_day!A17)</f>
         <v/>
       </c>
-      <c r="E20" s="25" t="str">
+      <c r="E20" s="24" t="str">
         <f>IF(_lianjiao_month_day!B17="","",_lianjiao_month_day!B17)</f>
         <v/>
       </c>
-      <c r="F20" s="25" t="str">
+      <c r="F20" s="24" t="str">
         <f>IF(_lianjiao_month_day!C17="","",_lianjiao_month_day!C17)</f>
         <v/>
       </c>
-      <c r="G20" s="25" t="str">
+      <c r="G20" s="24" t="str">
         <f>IF(_lianjiao_month_day!D17="","",_lianjiao_month_day!D17)</f>
         <v/>
       </c>
-      <c r="H20" s="25" t="str">
+      <c r="H20" s="24" t="str">
         <f>IF(_lianjiao_month_day!E17="","",_lianjiao_month_day!E17)</f>
         <v/>
       </c>
-      <c r="I20" s="25" t="str">
+      <c r="I20" s="24" t="str">
         <f>IF(_lianjiao_month_day!F17="","",_lianjiao_month_day!F17)</f>
         <v/>
       </c>
-      <c r="J20" s="25" t="str">
+      <c r="J20" s="24" t="str">
         <f>IF(_tag_month_day!A17="","",_tag_month_day!A17)</f>
         <v/>
       </c>
-      <c r="K20" s="25" t="str">
+      <c r="K20" s="24" t="str">
         <f>IF(_tag_month_day!B17="","",_tag_month_day!B17)</f>
         <v/>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="36"/>
     </row>
     <row r="21" ht="20.15" customHeight="1" spans="1:12">
       <c r="A21" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43601</v>
-      </c>
-      <c r="B21" s="28" t="str">
+        <v>43632</v>
+      </c>
+      <c r="B21" s="26" t="str">
         <f>IF(_peimei_month_day!A18="","",_peimei_month_day!A18)</f>
         <v/>
       </c>
-      <c r="C21" s="28" t="str">
+      <c r="C21" s="26" t="str">
         <f>IF(_crushing_month_day!A18="","",_crushing_month_day!A18)</f>
         <v/>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D21" s="26" t="str">
         <f>IF(_lianjiao_month_day!A18="","",_lianjiao_month_day!A18)</f>
         <v/>
       </c>
-      <c r="E21" s="30" t="str">
+      <c r="E21" s="26" t="str">
         <f>IF(_lianjiao_month_day!B18="","",_lianjiao_month_day!B18)</f>
         <v/>
       </c>
-      <c r="F21" s="30" t="str">
+      <c r="F21" s="26" t="str">
         <f>IF(_lianjiao_month_day!C18="","",_lianjiao_month_day!C18)</f>
         <v/>
       </c>
-      <c r="G21" s="30" t="str">
+      <c r="G21" s="26" t="str">
         <f>IF(_lianjiao_month_day!D18="","",_lianjiao_month_day!D18)</f>
         <v/>
       </c>
-      <c r="H21" s="30" t="str">
+      <c r="H21" s="26" t="str">
         <f>IF(_lianjiao_month_day!E18="","",_lianjiao_month_day!E18)</f>
         <v/>
       </c>
-      <c r="I21" s="30" t="str">
+      <c r="I21" s="26" t="str">
         <f>IF(_lianjiao_month_day!F18="","",_lianjiao_month_day!F18)</f>
         <v/>
       </c>
-      <c r="J21" s="30" t="str">
+      <c r="J21" s="26" t="str">
         <f>IF(_tag_month_day!A18="","",_tag_month_day!A18)</f>
         <v/>
       </c>
-      <c r="K21" s="30" t="str">
+      <c r="K21" s="26" t="str">
         <f>IF(_tag_month_day!B18="","",_tag_month_day!B18)</f>
         <v/>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="36"/>
     </row>
     <row r="22" ht="20.15" customHeight="1" spans="1:12">
       <c r="A22" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43602</v>
-      </c>
-      <c r="B22" s="28" t="str">
+        <v>43633</v>
+      </c>
+      <c r="B22" s="26" t="str">
         <f>IF(_peimei_month_day!A19="","",_peimei_month_day!A19)</f>
         <v/>
       </c>
-      <c r="C22" s="28" t="str">
+      <c r="C22" s="26" t="str">
         <f>IF(_crushing_month_day!A19="","",_crushing_month_day!A19)</f>
         <v/>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="26" t="str">
         <f>IF(_lianjiao_month_day!A19="","",_lianjiao_month_day!A19)</f>
         <v/>
       </c>
-      <c r="E22" s="30" t="str">
+      <c r="E22" s="26" t="str">
         <f>IF(_lianjiao_month_day!B19="","",_lianjiao_month_day!B19)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="26" t="str">
         <f>IF(_lianjiao_month_day!C19="","",_lianjiao_month_day!C19)</f>
         <v/>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="26" t="str">
         <f>IF(_lianjiao_month_day!D19="","",_lianjiao_month_day!D19)</f>
         <v/>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="26" t="str">
         <f>IF(_lianjiao_month_day!E19="","",_lianjiao_month_day!E19)</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="26" t="str">
         <f>IF(_lianjiao_month_day!F19="","",_lianjiao_month_day!F19)</f>
         <v/>
       </c>
-      <c r="J22" s="30" t="str">
+      <c r="J22" s="26" t="str">
         <f>IF(_tag_month_day!A19="","",_tag_month_day!A19)</f>
         <v/>
       </c>
-      <c r="K22" s="30" t="str">
+      <c r="K22" s="26" t="str">
         <f>IF(_tag_month_day!B19="","",_tag_month_day!B19)</f>
         <v/>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="36"/>
     </row>
     <row r="23" ht="20.15" customHeight="1" spans="1:12">
       <c r="A23" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43603</v>
-      </c>
-      <c r="B23" s="28" t="str">
+        <v>43634</v>
+      </c>
+      <c r="B23" s="26" t="str">
         <f>IF(_peimei_month_day!A20="","",_peimei_month_day!A20)</f>
         <v/>
       </c>
-      <c r="C23" s="28" t="str">
+      <c r="C23" s="26" t="str">
         <f>IF(_crushing_month_day!A20="","",_crushing_month_day!A20)</f>
         <v/>
       </c>
-      <c r="D23" s="30" t="str">
+      <c r="D23" s="26" t="str">
         <f>IF(_lianjiao_month_day!A20="","",_lianjiao_month_day!A20)</f>
         <v/>
       </c>
-      <c r="E23" s="30" t="str">
+      <c r="E23" s="26" t="str">
         <f>IF(_lianjiao_month_day!B20="","",_lianjiao_month_day!B20)</f>
         <v/>
       </c>
-      <c r="F23" s="30" t="str">
+      <c r="F23" s="26" t="str">
         <f>IF(_lianjiao_month_day!C20="","",_lianjiao_month_day!C20)</f>
         <v/>
       </c>
-      <c r="G23" s="30" t="str">
+      <c r="G23" s="26" t="str">
         <f>IF(_lianjiao_month_day!D20="","",_lianjiao_month_day!D20)</f>
         <v/>
       </c>
-      <c r="H23" s="30" t="str">
+      <c r="H23" s="26" t="str">
         <f>IF(_lianjiao_month_day!E20="","",_lianjiao_month_day!E20)</f>
         <v/>
       </c>
-      <c r="I23" s="30" t="str">
+      <c r="I23" s="26" t="str">
         <f>IF(_lianjiao_month_day!F20="","",_lianjiao_month_day!F20)</f>
         <v/>
       </c>
-      <c r="J23" s="30" t="str">
+      <c r="J23" s="26" t="str">
         <f>IF(_tag_month_day!A20="","",_tag_month_day!A20)</f>
         <v/>
       </c>
-      <c r="K23" s="30" t="str">
+      <c r="K23" s="26" t="str">
         <f>IF(_tag_month_day!B20="","",_tag_month_day!B20)</f>
         <v/>
       </c>
-      <c r="L23" s="39"/>
+      <c r="L23" s="36"/>
     </row>
     <row r="24" ht="20.15" customHeight="1" spans="1:12">
       <c r="A24" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43604</v>
-      </c>
-      <c r="B24" s="28" t="str">
+        <v>43635</v>
+      </c>
+      <c r="B24" s="26" t="str">
         <f>IF(_peimei_month_day!A21="","",_peimei_month_day!A21)</f>
         <v/>
       </c>
-      <c r="C24" s="28" t="str">
+      <c r="C24" s="26" t="str">
         <f>IF(_crushing_month_day!A21="","",_crushing_month_day!A21)</f>
         <v/>
       </c>
-      <c r="D24" s="30" t="str">
+      <c r="D24" s="26" t="str">
         <f>IF(_lianjiao_month_day!A21="","",_lianjiao_month_day!A21)</f>
         <v/>
       </c>
-      <c r="E24" s="30" t="str">
+      <c r="E24" s="26" t="str">
         <f>IF(_lianjiao_month_day!B21="","",_lianjiao_month_day!B21)</f>
         <v/>
       </c>
-      <c r="F24" s="30" t="str">
+      <c r="F24" s="26" t="str">
         <f>IF(_lianjiao_month_day!C21="","",_lianjiao_month_day!C21)</f>
         <v/>
       </c>
-      <c r="G24" s="30" t="str">
+      <c r="G24" s="26" t="str">
         <f>IF(_lianjiao_month_day!D21="","",_lianjiao_month_day!D21)</f>
         <v/>
       </c>
-      <c r="H24" s="30" t="str">
+      <c r="H24" s="26" t="str">
         <f>IF(_lianjiao_month_day!E21="","",_lianjiao_month_day!E21)</f>
         <v/>
       </c>
-      <c r="I24" s="30" t="str">
+      <c r="I24" s="26" t="str">
         <f>IF(_lianjiao_month_day!F21="","",_lianjiao_month_day!F21)</f>
         <v/>
       </c>
-      <c r="J24" s="30" t="str">
+      <c r="J24" s="26" t="str">
         <f>IF(_tag_month_day!A21="","",_tag_month_day!A21)</f>
         <v/>
       </c>
-      <c r="K24" s="30" t="str">
+      <c r="K24" s="26" t="str">
         <f>IF(_tag_month_day!B21="","",_tag_month_day!B21)</f>
         <v/>
       </c>
-      <c r="L24" s="39"/>
+      <c r="L24" s="36"/>
     </row>
     <row r="25" ht="20.15" customHeight="1" spans="1:12">
       <c r="A25" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43605</v>
-      </c>
-      <c r="B25" s="28" t="str">
+        <v>43636</v>
+      </c>
+      <c r="B25" s="26" t="str">
         <f>IF(_peimei_month_day!A22="","",_peimei_month_day!A22)</f>
         <v/>
       </c>
-      <c r="C25" s="28" t="str">
+      <c r="C25" s="26" t="str">
         <f>IF(_crushing_month_day!A22="","",_crushing_month_day!A22)</f>
         <v/>
       </c>
-      <c r="D25" s="30" t="str">
+      <c r="D25" s="26" t="str">
         <f>IF(_lianjiao_month_day!A22="","",_lianjiao_month_day!A22)</f>
         <v/>
       </c>
-      <c r="E25" s="30" t="str">
+      <c r="E25" s="26" t="str">
         <f>IF(_lianjiao_month_day!B22="","",_lianjiao_month_day!B22)</f>
         <v/>
       </c>
-      <c r="F25" s="30" t="str">
+      <c r="F25" s="26" t="str">
         <f>IF(_lianjiao_month_day!C22="","",_lianjiao_month_day!C22)</f>
         <v/>
       </c>
-      <c r="G25" s="30" t="str">
+      <c r="G25" s="26" t="str">
         <f>IF(_lianjiao_month_day!D22="","",_lianjiao_month_day!D22)</f>
         <v/>
       </c>
-      <c r="H25" s="30" t="str">
+      <c r="H25" s="26" t="str">
         <f>IF(_lianjiao_month_day!E22="","",_lianjiao_month_day!E22)</f>
         <v/>
       </c>
-      <c r="I25" s="30" t="str">
+      <c r="I25" s="26" t="str">
         <f>IF(_lianjiao_month_day!F22="","",_lianjiao_month_day!F22)</f>
         <v/>
       </c>
-      <c r="J25" s="30" t="str">
+      <c r="J25" s="26" t="str">
         <f>IF(_tag_month_day!A22="","",_tag_month_day!A22)</f>
         <v/>
       </c>
-      <c r="K25" s="30" t="str">
+      <c r="K25" s="26" t="str">
         <f>IF(_tag_month_day!B22="","",_tag_month_day!B22)</f>
         <v/>
       </c>
-      <c r="L25" s="39"/>
+      <c r="L25" s="36"/>
     </row>
     <row r="26" ht="20.15" customHeight="1" spans="1:12">
       <c r="A26" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43606</v>
-      </c>
-      <c r="B26" s="28" t="str">
+        <v>43637</v>
+      </c>
+      <c r="B26" s="26" t="str">
         <f>IF(_peimei_month_day!A23="","",_peimei_month_day!A23)</f>
         <v/>
       </c>
-      <c r="C26" s="28" t="str">
+      <c r="C26" s="26" t="str">
         <f>IF(_crushing_month_day!A23="","",_crushing_month_day!A23)</f>
         <v/>
       </c>
-      <c r="D26" s="30" t="str">
+      <c r="D26" s="26" t="str">
         <f>IF(_lianjiao_month_day!A23="","",_lianjiao_month_day!A23)</f>
         <v/>
       </c>
-      <c r="E26" s="30" t="str">
+      <c r="E26" s="26" t="str">
         <f>IF(_lianjiao_month_day!B23="","",_lianjiao_month_day!B23)</f>
         <v/>
       </c>
-      <c r="F26" s="30" t="str">
+      <c r="F26" s="26" t="str">
         <f>IF(_lianjiao_month_day!C23="","",_lianjiao_month_day!C23)</f>
         <v/>
       </c>
-      <c r="G26" s="30" t="str">
+      <c r="G26" s="26" t="str">
         <f>IF(_lianjiao_month_day!D23="","",_lianjiao_month_day!D23)</f>
         <v/>
       </c>
-      <c r="H26" s="30" t="str">
+      <c r="H26" s="26" t="str">
         <f>IF(_lianjiao_month_day!E23="","",_lianjiao_month_day!E23)</f>
         <v/>
       </c>
-      <c r="I26" s="30" t="str">
+      <c r="I26" s="26" t="str">
         <f>IF(_lianjiao_month_day!F23="","",_lianjiao_month_day!F23)</f>
         <v/>
       </c>
-      <c r="J26" s="30" t="str">
+      <c r="J26" s="26" t="str">
         <f>IF(_tag_month_day!A23="","",_tag_month_day!A23)</f>
         <v/>
       </c>
-      <c r="K26" s="30" t="str">
+      <c r="K26" s="26" t="str">
         <f>IF(_tag_month_day!B23="","",_tag_month_day!B23)</f>
         <v/>
       </c>
-      <c r="L26" s="39"/>
+      <c r="L26" s="36"/>
     </row>
     <row r="27" ht="20.15" customHeight="1" spans="1:12">
       <c r="A27" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43607</v>
-      </c>
-      <c r="B27" s="28" t="str">
+        <v>43638</v>
+      </c>
+      <c r="B27" s="26" t="str">
         <f>IF(_peimei_month_day!A24="","",_peimei_month_day!A24)</f>
         <v/>
       </c>
-      <c r="C27" s="28" t="str">
+      <c r="C27" s="26" t="str">
         <f>IF(_crushing_month_day!A24="","",_crushing_month_day!A24)</f>
         <v/>
       </c>
-      <c r="D27" s="30" t="str">
+      <c r="D27" s="26" t="str">
         <f>IF(_lianjiao_month_day!A24="","",_lianjiao_month_day!A24)</f>
         <v/>
       </c>
-      <c r="E27" s="30" t="str">
+      <c r="E27" s="26" t="str">
         <f>IF(_lianjiao_month_day!B24="","",_lianjiao_month_day!B24)</f>
         <v/>
       </c>
-      <c r="F27" s="30" t="str">
+      <c r="F27" s="26" t="str">
         <f>IF(_lianjiao_month_day!C24="","",_lianjiao_month_day!C24)</f>
         <v/>
       </c>
-      <c r="G27" s="30" t="str">
+      <c r="G27" s="26" t="str">
         <f>IF(_lianjiao_month_day!D24="","",_lianjiao_month_day!D24)</f>
         <v/>
       </c>
-      <c r="H27" s="30" t="str">
+      <c r="H27" s="26" t="str">
         <f>IF(_lianjiao_month_day!E24="","",_lianjiao_month_day!E24)</f>
         <v/>
       </c>
-      <c r="I27" s="30" t="str">
+      <c r="I27" s="26" t="str">
         <f>IF(_lianjiao_month_day!F24="","",_lianjiao_month_day!F24)</f>
         <v/>
       </c>
-      <c r="J27" s="30" t="str">
+      <c r="J27" s="26" t="str">
         <f>IF(_tag_month_day!A24="","",_tag_month_day!A24)</f>
         <v/>
       </c>
-      <c r="K27" s="30" t="str">
+      <c r="K27" s="26" t="str">
         <f>IF(_tag_month_day!B24="","",_tag_month_day!B24)</f>
         <v/>
       </c>
-      <c r="L27" s="39"/>
+      <c r="L27" s="36"/>
     </row>
     <row r="28" ht="20.15" customHeight="1" spans="1:12">
       <c r="A28" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43608</v>
-      </c>
-      <c r="B28" s="28" t="str">
+        <v>43639</v>
+      </c>
+      <c r="B28" s="26" t="str">
         <f>IF(_peimei_month_day!A25="","",_peimei_month_day!A25)</f>
         <v/>
       </c>
-      <c r="C28" s="28" t="str">
+      <c r="C28" s="26" t="str">
         <f>IF(_crushing_month_day!A25="","",_crushing_month_day!A25)</f>
         <v/>
       </c>
-      <c r="D28" s="30" t="str">
+      <c r="D28" s="26" t="str">
         <f>IF(_lianjiao_month_day!A25="","",_lianjiao_month_day!A25)</f>
         <v/>
       </c>
-      <c r="E28" s="30" t="str">
+      <c r="E28" s="26" t="str">
         <f>IF(_lianjiao_month_day!B25="","",_lianjiao_month_day!B25)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="26" t="str">
         <f>IF(_lianjiao_month_day!C25="","",_lianjiao_month_day!C25)</f>
         <v/>
       </c>
-      <c r="G28" s="30" t="str">
+      <c r="G28" s="26" t="str">
         <f>IF(_lianjiao_month_day!D25="","",_lianjiao_month_day!D25)</f>
         <v/>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="26" t="str">
         <f>IF(_lianjiao_month_day!E25="","",_lianjiao_month_day!E25)</f>
         <v/>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="26" t="str">
         <f>IF(_lianjiao_month_day!F25="","",_lianjiao_month_day!F25)</f>
         <v/>
       </c>
-      <c r="J28" s="30" t="str">
+      <c r="J28" s="26" t="str">
         <f>IF(_tag_month_day!A25="","",_tag_month_day!A25)</f>
         <v/>
       </c>
-      <c r="K28" s="30" t="str">
+      <c r="K28" s="26" t="str">
         <f>IF(_tag_month_day!B25="","",_tag_month_day!B25)</f>
         <v/>
       </c>
-      <c r="L28" s="39"/>
+      <c r="L28" s="36"/>
     </row>
     <row r="29" ht="20.15" customHeight="1" spans="1:12">
       <c r="A29" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43609</v>
-      </c>
-      <c r="B29" s="28" t="str">
+        <v>43640</v>
+      </c>
+      <c r="B29" s="26" t="str">
         <f>IF(_peimei_month_day!A26="","",_peimei_month_day!A26)</f>
         <v/>
       </c>
-      <c r="C29" s="28" t="str">
+      <c r="C29" s="26" t="str">
         <f>IF(_crushing_month_day!A26="","",_crushing_month_day!A26)</f>
         <v/>
       </c>
-      <c r="D29" s="30" t="str">
+      <c r="D29" s="26" t="str">
         <f>IF(_lianjiao_month_day!A26="","",_lianjiao_month_day!A26)</f>
         <v/>
       </c>
-      <c r="E29" s="30" t="str">
+      <c r="E29" s="26" t="str">
         <f>IF(_lianjiao_month_day!B26="","",_lianjiao_month_day!B26)</f>
         <v/>
       </c>
-      <c r="F29" s="30" t="str">
+      <c r="F29" s="26" t="str">
         <f>IF(_lianjiao_month_day!C26="","",_lianjiao_month_day!C26)</f>
         <v/>
       </c>
-      <c r="G29" s="30" t="str">
+      <c r="G29" s="26" t="str">
         <f>IF(_lianjiao_month_day!D26="","",_lianjiao_month_day!D26)</f>
         <v/>
       </c>
-      <c r="H29" s="30" t="str">
+      <c r="H29" s="26" t="str">
         <f>IF(_lianjiao_month_day!E26="","",_lianjiao_month_day!E26)</f>
         <v/>
       </c>
-      <c r="I29" s="30" t="str">
+      <c r="I29" s="26" t="str">
         <f>IF(_lianjiao_month_day!F26="","",_lianjiao_month_day!F26)</f>
         <v/>
       </c>
-      <c r="J29" s="30" t="str">
+      <c r="J29" s="26" t="str">
         <f>IF(_tag_month_day!A26="","",_tag_month_day!A26)</f>
         <v/>
       </c>
-      <c r="K29" s="30" t="str">
+      <c r="K29" s="26" t="str">
         <f>IF(_tag_month_day!B26="","",_tag_month_day!B26)</f>
         <v/>
       </c>
-      <c r="L29" s="39"/>
+      <c r="L29" s="36"/>
     </row>
     <row r="30" ht="20.15" customHeight="1" spans="1:12">
       <c r="A30" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43610</v>
-      </c>
-      <c r="B30" s="28" t="str">
+        <v>43641</v>
+      </c>
+      <c r="B30" s="26" t="str">
         <f>IF(_peimei_month_day!A27="","",_peimei_month_day!A27)</f>
         <v/>
       </c>
-      <c r="C30" s="28" t="str">
+      <c r="C30" s="26" t="str">
         <f>IF(_crushing_month_day!A27="","",_crushing_month_day!A27)</f>
         <v/>
       </c>
-      <c r="D30" s="30" t="str">
+      <c r="D30" s="26" t="str">
         <f>IF(_lianjiao_month_day!A27="","",_lianjiao_month_day!A27)</f>
         <v/>
       </c>
-      <c r="E30" s="30" t="str">
+      <c r="E30" s="26" t="str">
         <f>IF(_lianjiao_month_day!B27="","",_lianjiao_month_day!B27)</f>
         <v/>
       </c>
-      <c r="F30" s="30" t="str">
+      <c r="F30" s="26" t="str">
         <f>IF(_lianjiao_month_day!C27="","",_lianjiao_month_day!C27)</f>
         <v/>
       </c>
-      <c r="G30" s="30" t="str">
+      <c r="G30" s="26" t="str">
         <f>IF(_lianjiao_month_day!D27="","",_lianjiao_month_day!D27)</f>
         <v/>
       </c>
-      <c r="H30" s="30" t="str">
+      <c r="H30" s="26" t="str">
         <f>IF(_lianjiao_month_day!E27="","",_lianjiao_month_day!E27)</f>
         <v/>
       </c>
-      <c r="I30" s="30" t="str">
+      <c r="I30" s="26" t="str">
         <f>IF(_lianjiao_month_day!F27="","",_lianjiao_month_day!F27)</f>
         <v/>
       </c>
-      <c r="J30" s="30" t="str">
+      <c r="J30" s="26" t="str">
         <f>IF(_tag_month_day!A27="","",_tag_month_day!A27)</f>
         <v/>
       </c>
-      <c r="K30" s="30" t="str">
+      <c r="K30" s="26" t="str">
         <f>IF(_tag_month_day!B27="","",_tag_month_day!B27)</f>
         <v/>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="36"/>
     </row>
     <row r="31" ht="20.15" customHeight="1" spans="1:12">
       <c r="A31" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43611</v>
-      </c>
-      <c r="B31" s="28" t="str">
+        <v>43642</v>
+      </c>
+      <c r="B31" s="26" t="str">
         <f>IF(_peimei_month_day!A28="","",_peimei_month_day!A28)</f>
         <v/>
       </c>
-      <c r="C31" s="28" t="str">
+      <c r="C31" s="26" t="str">
         <f>IF(_crushing_month_day!A28="","",_crushing_month_day!A28)</f>
         <v/>
       </c>
-      <c r="D31" s="30" t="str">
+      <c r="D31" s="26" t="str">
         <f>IF(_lianjiao_month_day!A28="","",_lianjiao_month_day!A28)</f>
         <v/>
       </c>
-      <c r="E31" s="30" t="str">
+      <c r="E31" s="26" t="str">
         <f>IF(_lianjiao_month_day!B28="","",_lianjiao_month_day!B28)</f>
         <v/>
       </c>
-      <c r="F31" s="30" t="str">
+      <c r="F31" s="26" t="str">
         <f>IF(_lianjiao_month_day!C28="","",_lianjiao_month_day!C28)</f>
         <v/>
       </c>
-      <c r="G31" s="30" t="str">
+      <c r="G31" s="26" t="str">
         <f>IF(_lianjiao_month_day!D28="","",_lianjiao_month_day!D28)</f>
         <v/>
       </c>
-      <c r="H31" s="30" t="str">
+      <c r="H31" s="26" t="str">
         <f>IF(_lianjiao_month_day!E28="","",_lianjiao_month_day!E28)</f>
         <v/>
       </c>
-      <c r="I31" s="30" t="str">
+      <c r="I31" s="26" t="str">
         <f>IF(_lianjiao_month_day!F28="","",_lianjiao_month_day!F28)</f>
         <v/>
       </c>
-      <c r="J31" s="30" t="str">
+      <c r="J31" s="26" t="str">
         <f>IF(_tag_month_day!A28="","",_tag_month_day!A28)</f>
         <v/>
       </c>
-      <c r="K31" s="30" t="str">
+      <c r="K31" s="26" t="str">
         <f>IF(_tag_month_day!B28="","",_tag_month_day!B28)</f>
         <v/>
       </c>
-      <c r="L31" s="39"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" ht="20.15" customHeight="1" spans="1:12">
       <c r="A32" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43612</v>
-      </c>
-      <c r="B32" s="28" t="str">
+        <v>43643</v>
+      </c>
+      <c r="B32" s="26" t="str">
         <f>IF(_peimei_month_day!A29="","",_peimei_month_day!A29)</f>
         <v/>
       </c>
-      <c r="C32" s="28" t="str">
+      <c r="C32" s="26" t="str">
         <f>IF(_crushing_month_day!A29="","",_crushing_month_day!A29)</f>
         <v/>
       </c>
-      <c r="D32" s="30" t="str">
+      <c r="D32" s="26" t="str">
         <f>IF(_lianjiao_month_day!A29="","",_lianjiao_month_day!A29)</f>
         <v/>
       </c>
-      <c r="E32" s="30" t="str">
+      <c r="E32" s="26" t="str">
         <f>IF(_lianjiao_month_day!B29="","",_lianjiao_month_day!B29)</f>
         <v/>
       </c>
-      <c r="F32" s="30" t="str">
+      <c r="F32" s="26" t="str">
         <f>IF(_lianjiao_month_day!C29="","",_lianjiao_month_day!C29)</f>
         <v/>
       </c>
-      <c r="G32" s="30" t="str">
+      <c r="G32" s="26" t="str">
         <f>IF(_lianjiao_month_day!D29="","",_lianjiao_month_day!D29)</f>
         <v/>
       </c>
-      <c r="H32" s="30" t="str">
+      <c r="H32" s="26" t="str">
         <f>IF(_lianjiao_month_day!E29="","",_lianjiao_month_day!E29)</f>
         <v/>
       </c>
-      <c r="I32" s="30" t="str">
+      <c r="I32" s="26" t="str">
         <f>IF(_lianjiao_month_day!F29="","",_lianjiao_month_day!F29)</f>
         <v/>
       </c>
-      <c r="J32" s="30" t="str">
+      <c r="J32" s="26" t="str">
         <f>IF(_tag_month_day!A29="","",_tag_month_day!A29)</f>
         <v/>
       </c>
-      <c r="K32" s="30" t="str">
+      <c r="K32" s="26" t="str">
         <f>IF(_tag_month_day!B29="","",_tag_month_day!B29)</f>
         <v/>
       </c>
-      <c r="L32" s="39"/>
+      <c r="L32" s="36"/>
     </row>
     <row r="33" ht="20.15" customHeight="1" spans="1:12">
       <c r="A33" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43613</v>
-      </c>
-      <c r="B33" s="28" t="str">
+        <v>43644</v>
+      </c>
+      <c r="B33" s="26" t="str">
         <f>IF(_peimei_month_day!A30="","",_peimei_month_day!A30)</f>
         <v/>
       </c>
-      <c r="C33" s="28" t="str">
+      <c r="C33" s="26" t="str">
         <f>IF(_crushing_month_day!A30="","",_crushing_month_day!A30)</f>
         <v/>
       </c>
-      <c r="D33" s="30" t="str">
+      <c r="D33" s="26" t="str">
         <f>IF(_lianjiao_month_day!A30="","",_lianjiao_month_day!A30)</f>
         <v/>
       </c>
-      <c r="E33" s="30" t="str">
+      <c r="E33" s="26" t="str">
         <f>IF(_lianjiao_month_day!B30="","",_lianjiao_month_day!B30)</f>
         <v/>
       </c>
-      <c r="F33" s="30" t="str">
+      <c r="F33" s="26" t="str">
         <f>IF(_lianjiao_month_day!C30="","",_lianjiao_month_day!C30)</f>
         <v/>
       </c>
-      <c r="G33" s="30" t="str">
+      <c r="G33" s="26" t="str">
         <f>IF(_lianjiao_month_day!D30="","",_lianjiao_month_day!D30)</f>
         <v/>
       </c>
-      <c r="H33" s="30" t="str">
+      <c r="H33" s="26" t="str">
         <f>IF(_lianjiao_month_day!E30="","",_lianjiao_month_day!E30)</f>
         <v/>
       </c>
-      <c r="I33" s="30" t="str">
+      <c r="I33" s="26" t="str">
         <f>IF(_lianjiao_month_day!F30="","",_lianjiao_month_day!F30)</f>
         <v/>
       </c>
-      <c r="J33" s="30" t="str">
+      <c r="J33" s="26" t="str">
         <f>IF(_tag_month_day!A30="","",_tag_month_day!A30)</f>
         <v/>
       </c>
-      <c r="K33" s="30" t="str">
+      <c r="K33" s="26" t="str">
         <f>IF(_tag_month_day!B30="","",_tag_month_day!B30)</f>
         <v/>
       </c>
-      <c r="L33" s="39"/>
+      <c r="L33" s="36"/>
     </row>
     <row r="34" ht="20.15" customHeight="1" spans="1:12">
       <c r="A34" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43614</v>
-      </c>
-      <c r="B34" s="28" t="str">
+        <v>43645</v>
+      </c>
+      <c r="B34" s="26" t="str">
         <f>IF(_peimei_month_day!A31="","",_peimei_month_day!A31)</f>
         <v/>
       </c>
-      <c r="C34" s="28" t="str">
+      <c r="C34" s="26" t="str">
         <f>IF(_crushing_month_day!A31="","",_crushing_month_day!A31)</f>
         <v/>
       </c>
-      <c r="D34" s="30" t="str">
+      <c r="D34" s="26" t="str">
         <f>IF(_lianjiao_month_day!A31="","",_lianjiao_month_day!A31)</f>
         <v/>
       </c>
-      <c r="E34" s="30" t="str">
+      <c r="E34" s="26" t="str">
         <f>IF(_lianjiao_month_day!B31="","",_lianjiao_month_day!B31)</f>
         <v/>
       </c>
-      <c r="F34" s="30" t="str">
+      <c r="F34" s="26" t="str">
         <f>IF(_lianjiao_month_day!C31="","",_lianjiao_month_day!C31)</f>
         <v/>
       </c>
-      <c r="G34" s="30" t="str">
+      <c r="G34" s="26" t="str">
         <f>IF(_lianjiao_month_day!D31="","",_lianjiao_month_day!D31)</f>
         <v/>
       </c>
-      <c r="H34" s="30" t="str">
+      <c r="H34" s="26" t="str">
         <f>IF(_lianjiao_month_day!E31="","",_lianjiao_month_day!E31)</f>
         <v/>
       </c>
-      <c r="I34" s="30" t="str">
+      <c r="I34" s="26" t="str">
         <f>IF(_lianjiao_month_day!F31="","",_lianjiao_month_day!F31)</f>
         <v/>
       </c>
-      <c r="J34" s="30" t="str">
+      <c r="J34" s="26" t="str">
         <f>IF(_tag_month_day!A31="","",_tag_month_day!A31)</f>
         <v/>
       </c>
-      <c r="K34" s="30" t="str">
+      <c r="K34" s="26" t="str">
         <f>IF(_tag_month_day!B31="","",_tag_month_day!B31)</f>
         <v/>
       </c>
-      <c r="L34" s="39"/>
+      <c r="L34" s="36"/>
     </row>
     <row r="35" ht="20.15" customHeight="1" spans="1:12">
       <c r="A35" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43615</v>
-      </c>
-      <c r="B35" s="28" t="str">
+        <v>43646</v>
+      </c>
+      <c r="B35" s="26" t="str">
         <f>IF(_peimei_month_day!A32="","",_peimei_month_day!A32)</f>
         <v/>
       </c>
-      <c r="C35" s="28" t="str">
+      <c r="C35" s="26" t="str">
         <f>IF(_crushing_month_day!A32="","",_crushing_month_day!A32)</f>
         <v/>
       </c>
-      <c r="D35" s="30" t="str">
+      <c r="D35" s="26" t="str">
         <f>IF(_lianjiao_month_day!A32="","",_lianjiao_month_day!A32)</f>
         <v/>
       </c>
-      <c r="E35" s="30" t="str">
+      <c r="E35" s="26" t="str">
         <f>IF(_lianjiao_month_day!B32="","",_lianjiao_month_day!B32)</f>
         <v/>
       </c>
-      <c r="F35" s="30" t="str">
+      <c r="F35" s="26" t="str">
         <f>IF(_lianjiao_month_day!C32="","",_lianjiao_month_day!C32)</f>
         <v/>
       </c>
-      <c r="G35" s="30" t="str">
+      <c r="G35" s="26" t="str">
         <f>IF(_lianjiao_month_day!D32="","",_lianjiao_month_day!D32)</f>
         <v/>
       </c>
-      <c r="H35" s="30" t="str">
+      <c r="H35" s="26" t="str">
         <f>IF(_lianjiao_month_day!E32="","",_lianjiao_month_day!E32)</f>
         <v/>
       </c>
-      <c r="I35" s="30" t="str">
+      <c r="I35" s="26" t="str">
         <f>IF(_lianjiao_month_day!F32="","",_lianjiao_month_day!F32)</f>
         <v/>
       </c>
-      <c r="J35" s="30" t="str">
+      <c r="J35" s="26" t="str">
         <f>IF(_tag_month_day!A32="","",_tag_month_day!A32)</f>
         <v/>
       </c>
-      <c r="K35" s="30" t="str">
+      <c r="K35" s="26" t="str">
         <f>IF(_tag_month_day!B32="","",_tag_month_day!B32)</f>
         <v/>
       </c>
-      <c r="L35" s="39"/>
+      <c r="L35" s="36"/>
     </row>
     <row r="36" ht="20.15" customHeight="1" spans="1:12">
       <c r="A36" s="23">
         <f ca="1" t="shared" si="0"/>
-        <v>43616</v>
-      </c>
-      <c r="B36" s="28" t="str">
+        <v>43647</v>
+      </c>
+      <c r="B36" s="26" t="str">
         <f>IF(_peimei_month_day!A33="","",_peimei_month_day!A33)</f>
         <v/>
       </c>
-      <c r="C36" s="28" t="str">
+      <c r="C36" s="26" t="str">
         <f>IF(_crushing_month_day!A33="","",_crushing_month_day!A33)</f>
         <v/>
       </c>
-      <c r="D36" s="30" t="str">
+      <c r="D36" s="26" t="str">
         <f>IF(_lianjiao_month_day!A33="","",_lianjiao_month_day!A33)</f>
         <v/>
       </c>
-      <c r="E36" s="30" t="str">
+      <c r="E36" s="26" t="str">
         <f>IF(_lianjiao_month_day!B33="","",_lianjiao_month_day!B33)</f>
         <v/>
       </c>
-      <c r="F36" s="30" t="str">
+      <c r="F36" s="26" t="str">
         <f>IF(_lianjiao_month_day!C33="","",_lianjiao_month_day!C33)</f>
         <v/>
       </c>
-      <c r="G36" s="30" t="str">
+      <c r="G36" s="26" t="str">
         <f>IF(_lianjiao_month_day!D33="","",_lianjiao_month_day!D33)</f>
         <v/>
       </c>
-      <c r="H36" s="30" t="str">
+      <c r="H36" s="26" t="str">
         <f>IF(_lianjiao_month_day!E33="","",_lianjiao_month_day!E33)</f>
         <v/>
       </c>
-      <c r="I36" s="30" t="str">
+      <c r="I36" s="26" t="str">
         <f>IF(_lianjiao_month_day!F33="","",_lianjiao_month_day!F33)</f>
         <v/>
       </c>
-      <c r="J36" s="30" t="str">
+      <c r="J36" s="26" t="str">
         <f>IF(_tag_month_day!A33="","",_tag_month_day!A33)</f>
         <v/>
       </c>
-      <c r="K36" s="30" t="str">
+      <c r="K36" s="26" t="str">
         <f>IF(_tag_month_day!B33="","",_tag_month_day!B33)</f>
         <v/>
       </c>
-      <c r="L36" s="39"/>
+      <c r="L36" s="36"/>
     </row>
     <row r="37" ht="21.65" customHeight="1" spans="1:12">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="40"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3360,54 +3359,54 @@
     <mergeCell ref="L2:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B36">
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThan">
-      <formula>$B$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+      <formula>B$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C36">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="notBetween">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notBetween">
       <formula>70</formula>
       <formula>77</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D36">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="lessThan">
-      <formula>$D$5</formula>
+      <formula>D$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E36">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="lessThan">
-      <formula>$E$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
+      <formula>E$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F36">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="lessThan">
-      <formula>$F$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
+      <formula>F$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G36">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="lessThan">
-      <formula>$G$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+      <formula>G$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H36">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
-      <formula>$H$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>H$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I36">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
-      <formula>$I$5</formula>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>I$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:J36">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>$J$5</formula>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
+      <formula>J$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K36">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>$K$5</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>K$5+0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
